--- a/static/data/exported_data.xlsx
+++ b/static/data/exported_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3437,6 +3437,454 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>61</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/data/exported_data.xlsx
+++ b/static/data/exported_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,6 +3885,734 @@
         <v>1</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>66</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>67</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>68</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>69</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>70</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>71</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>72</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>73</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>74</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>75</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>76</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>77</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
